--- a/dynamics/src/dynamics/xlsx/tested_state_original_design.xlsx
+++ b/dynamics/src/dynamics/xlsx/tested_state_original_design.xlsx
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>122.5522352790247</v>
+        <v>176.3651844588868</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="G3" t="n">
         <v>26.036</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>334.8033755635122</v>
+        <v>378.9637784732679</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="G4" t="n">
         <v>26.036</v>
@@ -632,19 +632,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>232.9487758086098</v>
+        <v>328.1082605273225</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="G7" t="n">
         <v>26.036</v>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>641.3008763241133</v>
+        <v>714.3960623361766</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="G8" t="n">
         <v>26.036</v>
@@ -768,19 +768,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>343.8415552358288</v>
+        <v>481.9949231290301</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="G11" t="n">
         <v>26.036</v>
@@ -805,16 +805,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>949.2745169019869</v>
+        <v>1053.149130220529</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="G12" t="n">
         <v>26.036</v>
@@ -904,19 +904,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>399.6321996711864</v>
+        <v>559.0635379518063</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="G15" t="n">
         <v>26.036</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>1103.463822858034</v>
+        <v>1222.999659563553</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="G16" t="n">
         <v>26.036</v>

--- a/dynamics/src/dynamics/xlsx/tested_state_original_design.xlsx
+++ b/dynamics/src/dynamics/xlsx/tested_state_original_design.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,544 +424,1116 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1-A-10</t>
+          <t>0-A-10</t>
         </is>
       </c>
       <c r="B1" t="n">
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>70.82174219076187</v>
       </c>
       <c r="D1" t="n">
-        <v>122.5522352790247</v>
+        <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>1</v>
+        <v>0.02071574340946317</v>
       </c>
       <c r="F1" t="n">
-        <v>0.02071574340946317</v>
+        <v>26.036</v>
       </c>
       <c r="G1" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H1" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I1" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J1" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1-A-30</t>
+          <t>0-A-30</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>192.8397557699988</v>
       </c>
       <c r="D2" t="n">
-        <v>334.8033755635122</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.02071574340946317</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02071574340946317</v>
+        <v>26.036</v>
       </c>
       <c r="G2" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H2" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I2" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J2" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1-B-10</t>
+          <t>0-B-10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>102.9023211748084</v>
       </c>
       <c r="D3" t="n">
-        <v>176.3651844588868</v>
+        <v>0.8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008352056178274002</v>
+        <v>26.036</v>
       </c>
       <c r="G3" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H3" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I3" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J3" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1-B-30</t>
+          <t>0-B-30</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>214.3269635970799</v>
       </c>
       <c r="D4" t="n">
-        <v>378.9637784732679</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008352056178274002</v>
+        <v>26.036</v>
       </c>
       <c r="G4" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H4" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I4" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J4" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3-A-10</t>
+          <t>0-C-10</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>82.81041196565944</v>
       </c>
       <c r="D5" t="n">
-        <v>232.9487758086098</v>
+        <v>0.7</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.01650865619802579</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02071574340946317</v>
+        <v>26.036</v>
       </c>
       <c r="G5" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H5" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I5" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J5" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3-A-30</t>
+          <t>0-C-30</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>228.5374320305897</v>
       </c>
       <c r="D6" t="n">
-        <v>641.3008763241133</v>
+        <v>0.7</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.01650865619802579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02071574340946317</v>
+        <v>26.036</v>
       </c>
       <c r="G6" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H6" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I6" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J6" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3-B-10</t>
+          <t>0.5-A-10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>96.13515754672733</v>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>328.1082605273225</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>0.02071574340946317</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008352056178274002</v>
+        <v>26.036</v>
       </c>
       <c r="G7" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H7" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I7" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J7" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3-B-30</t>
+          <t>0.5-A-30</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>261.3905053521987</v>
       </c>
       <c r="D8" t="n">
-        <v>714.3960623361766</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8</v>
+        <v>0.02071574340946317</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008352056178274002</v>
+        <v>26.036</v>
       </c>
       <c r="G8" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H8" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I8" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J8" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5-A-10</t>
+          <t>0.5-B-10</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>139.1514201639969</v>
       </c>
       <c r="D9" t="n">
-        <v>343.8415552358288</v>
+        <v>0.8</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02071574340946317</v>
+        <v>26.036</v>
       </c>
       <c r="G9" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H9" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I9" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J9" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5-A-30</t>
+          <t>0.5-B-30</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>295.6471910798458</v>
       </c>
       <c r="D10" t="n">
-        <v>949.2745169019869</v>
+        <v>0.8</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02071574340946317</v>
+        <v>26.036</v>
       </c>
       <c r="G10" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H10" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I10" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J10" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5-B-10</t>
+          <t>0.5-C-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>110.117572673306</v>
       </c>
       <c r="D11" t="n">
-        <v>481.9949231290301</v>
+        <v>0.7</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8</v>
+        <v>0.01650865619802579</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008352056178274002</v>
+        <v>26.036</v>
       </c>
       <c r="G11" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H11" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I11" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J11" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5-B-30</t>
+          <t>0.5-C-30</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>306.4006239803035</v>
       </c>
       <c r="D12" t="n">
-        <v>1053.149130220529</v>
+        <v>0.7</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8</v>
+        <v>0.01650865619802579</v>
       </c>
       <c r="F12" t="n">
-        <v>0.008352056178274002</v>
+        <v>26.036</v>
       </c>
       <c r="G12" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H12" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I12" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J12" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6-A-10</t>
+          <t>1-A-10</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>122.5522352790247</v>
       </c>
       <c r="D13" t="n">
-        <v>399.6321996711864</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0.02071574340946317</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02071574340946317</v>
+        <v>26.036</v>
       </c>
       <c r="G13" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H13" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I13" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J13" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6-A-30</t>
+          <t>1-A-30</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>334.8033755635122</v>
       </c>
       <c r="D14" t="n">
-        <v>1103.463822858034</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0.02071574340946317</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02071574340946317</v>
+        <v>26.036</v>
       </c>
       <c r="G14" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H14" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I14" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J14" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6-B-10</t>
+          <t>1-B-10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>176.3651844588868</v>
       </c>
       <c r="D15" t="n">
-        <v>559.0635379518063</v>
+        <v>0.8</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008352056178274002</v>
+        <v>26.036</v>
       </c>
       <c r="G15" t="n">
-        <v>26.036</v>
+        <v>23.964</v>
       </c>
       <c r="H15" t="n">
-        <v>23.964</v>
+        <v>44.7</v>
       </c>
       <c r="I15" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J15" t="n">
         <v>25.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>1-B-30</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>378.9637784732679</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.008352056178274002</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G16" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H16" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1-C-10</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>138.4065562251066</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01650865619802579</v>
+      </c>
+      <c r="F17" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G17" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H17" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1-C-30</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>386.7907586526562</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01650865619802579</v>
+      </c>
+      <c r="F18" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G18" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H18" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3-A-10</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>232.9487758086098</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.02071574340946317</v>
+      </c>
+      <c r="F19" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G19" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H19" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3-A-30</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>641.3008763241133</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.02071574340946317</v>
+      </c>
+      <c r="F20" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G20" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H20" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3-B-10</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>328.1082605273225</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.008352056178274002</v>
+      </c>
+      <c r="F21" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G21" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H21" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3-B-30</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>714.3960623361766</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.008352056178274002</v>
+      </c>
+      <c r="F22" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G22" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H22" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3-C-10</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>252.9776295074435</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01650865619802579</v>
+      </c>
+      <c r="F23" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G23" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H23" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3-C-30</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>710.8878589930479</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01650865619802579</v>
+      </c>
+      <c r="F24" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G24" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H24" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>5-A-10</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>343.8415552358288</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02071574340946317</v>
+      </c>
+      <c r="F25" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G25" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H25" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>5-A-30</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>949.2745169019869</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.02071574340946317</v>
+      </c>
+      <c r="F26" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G26" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H26" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>5-B-10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>481.9949231290301</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.008352056178274002</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G27" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H27" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>5-B-30</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1053.149130220529</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.008352056178274002</v>
+      </c>
+      <c r="F28" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G28" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H28" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>5-C-10</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>368.0166157253632</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01650865619802579</v>
+      </c>
+      <c r="F29" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G29" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H29" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5-C-30</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1035.728958161156</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01650865619802579</v>
+      </c>
+      <c r="F30" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G30" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H30" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>6-A-10</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>399.6321996711864</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02071574340946317</v>
+      </c>
+      <c r="F31" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G31" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H31" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>6-A-30</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1103.463822858034</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.02071574340946317</v>
+      </c>
+      <c r="F32" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G32" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H32" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>6-B-10</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>559.0635379518063</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.008352056178274002</v>
+      </c>
+      <c r="F33" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G33" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H33" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>6-B-30</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B34" t="n">
         <v>4</v>
       </c>
-      <c r="D16" t="n">
+      <c r="C34" t="n">
         <v>1222.999659563553</v>
       </c>
-      <c r="E16" t="n">
+      <c r="D34" t="n">
         <v>0.8</v>
       </c>
-      <c r="F16" t="n">
+      <c r="E34" t="n">
         <v>0.008352056178274002</v>
       </c>
-      <c r="G16" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="H16" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="I16" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="F34" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G34" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H34" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>6-C-10</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>425.7680034249445</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.01650865619802579</v>
+      </c>
+      <c r="F35" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G35" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H35" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>6-C-30</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1198.298641575391</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01650865619802579</v>
+      </c>
+      <c r="F36" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="G36" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="H36" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I36" t="n">
         <v>25.1</v>
       </c>
     </row>
